--- a/Qa_Legend/src/main/resources/TestData.xlsx
+++ b/Qa_Legend/src/main/resources/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\git\Qa_Legend\Qa_Legend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AD61A9-BE91-4EA9-A353-2222D540A07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC3E2E-DF03-4BA2-B2FC-3C5C6AEE4CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9855" yWindow="1695" windowWidth="13935" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Page" sheetId="1" r:id="rId1"/>
     <sheet name="Reset_Page" sheetId="2" r:id="rId2"/>
     <sheet name="Home_Page" sheetId="3" r:id="rId3"/>
+    <sheet name="Users_Page" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -78,6 +79,12 @@
   </si>
   <si>
     <t>Home - Maxfest Enterprises PVT LTD,Kochi</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>jeffry.jose86@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -527,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A61023B3-C9F0-4FDE-AA19-CF9A20487BAE}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -548,4 +555,33 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1670B1D-EF37-457D-9AC6-86DF399903B4}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{98D4FD1E-9B03-4564-98AD-B3F4B37C3167}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Qa_Legend/src/main/resources/TestData.xlsx
+++ b/Qa_Legend/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\git\Qa_Legend\Qa_Legend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAC3E2E-DF03-4BA2-B2FC-3C5C6AEE4CC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0060104E-699A-4399-BED1-52EC9330B3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1670B1D-EF37-457D-9AC6-86DF399903B4}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -567,20 +567,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{98D4FD1E-9B03-4564-98AD-B3F4B37C3167}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1AE31646-170F-4150-A718-B21373805E0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Qa_Legend/src/main/resources/TestData.xlsx
+++ b/Qa_Legend/src/main/resources/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\git\Qa_Legend\Qa_Legend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0060104E-699A-4399-BED1-52EC9330B3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5182FC3C-D62F-4E98-BECB-129191C7EFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
